--- a/Consultant_Active_Reports/Active_Candidates_Weronika_Nazarko.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Weronika_Nazarko.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Peter Draper</t>
+          <t>Alistair Macrae</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45980</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="4">
@@ -541,7 +541,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Alistair Macrae</t>
+          <t>LLOYD WEBB</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45987</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="5">
@@ -569,16 +569,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LLOYD WEBB</t>
+          <t>Graham Rance</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45994</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +597,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Graham Rance</t>
+          <t>Adam Evans</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45992</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="7">
@@ -625,44 +625,44 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Adam Evans</t>
+          <t>James Todd</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45985</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>663</v>
+        <v>707</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Blink Ops</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sales Engineer UK</t>
+          <t>Sales Engineer EMEA (UK, Nordics, Benelux, Germany) x 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>James Todd</t>
+          <t>Harry Kimpel</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45981</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="9">
@@ -681,7 +681,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Harry Kimpel</t>
+          <t>Patrick Schrimpf</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -690,54 +690,54 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45992</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dash0</t>
+          <t>PointFive</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sales Engineer EMEA (UK, Nordics, Benelux, Germany) x 2</t>
+          <t>PointFive SE EST</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Patrick Schrimpf</t>
+          <t>Matthew Hughes</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45988</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PointFive</t>
+          <t>Blink Ops</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PointFive SE EST</t>
+          <t>Senior Sales Engineer (Mid-ATL)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Matthew Hughes</t>
+          <t>Jakub Nogalski</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45994</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="12">
@@ -765,7 +765,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jakub Nogalski</t>
+          <t>James Gaidos</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -774,26 +774,26 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45982</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>745</v>
+        <v>768</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Blink Ops</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Senior Sales Engineer (Mid-ATL)</t>
+          <t>Senior Sales Engineer (US)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>James Gaidos</t>
+          <t>Artur Sirota</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="14">
@@ -821,7 +821,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Artur Sirota</t>
+          <t>Matthew Hughes</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -830,12 +830,12 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45988</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -844,12 +844,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Senior Sales Engineer (US)</t>
+          <t>SE Director</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Matthew Hughes</t>
+          <t>Hozefa Bata</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -858,35 +858,35 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45986</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>777</v>
+        <v>788</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Mabl</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SE Director</t>
+          <t>Partner Manager</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hozefa Bata</t>
+          <t>Alix Moreira</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45974</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="17">
@@ -905,44 +905,44 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Alix Moreira</t>
+          <t>Juan Echeverri</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45995</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mabl</t>
+          <t>Allium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Partner Manager</t>
+          <t>Growth Marketing</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Juan Echeverri</t>
+          <t>Julia Nelson</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45992</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="19">
@@ -961,7 +961,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Julia Nelson</t>
+          <t>SHAIL SHAH</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SHAIL SHAH</t>
+          <t>David Lambert</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45978</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="21">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>David Lambert</t>
+          <t>KC Patrick</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>KC Patrick</t>
+          <t>Cameron Bernard</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1054,118 +1054,90 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45980</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Allium</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Growth Marketing</t>
+          <t>Head of Sales (US)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cameron Bernard</t>
+          <t>Joseph Crowley</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45982</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Legion Security</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Head of Sales (US)</t>
+          <t>CS1 Legion - Sales Engineer</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Joseph Crowley</t>
+          <t>Michael Maizel</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45987</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>799</v>
+        <v>826</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Legion Security</t>
+          <t>Legit Security</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS1 Legion - Sales Engineer</t>
+          <t>VP of Sales</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Michael Maizel</t>
+          <t>Joseph Crowley</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>826</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Legit Security</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>VP of Sales</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Joseph Crowley</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="n">
         <v>45992</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_Weronika_Nazarko.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Weronika_Nazarko.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,30 +499,30 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>663</v>
+        <v>580</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blink Ops</t>
+          <t>Legion Security</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sales Engineer UK</t>
+          <t>Sales Engineer (US)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Alistair Macrae</t>
+          <t>Michael Maizel</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45987</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="4">
@@ -541,16 +541,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LLOYD WEBB</t>
+          <t>Kev Pyart</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45994</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="5">
@@ -569,16 +569,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Graham Rance</t>
+          <t>LLOYD WEBB</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45992</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="6">
@@ -597,16 +597,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Adam Evans</t>
+          <t>James Todd</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45985</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="7">
@@ -625,35 +625,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>James Todd</t>
+          <t>Graham Rance</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45981</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>707</v>
+        <v>663</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dash0</t>
+          <t>Blink Ops</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sales Engineer EMEA (UK, Nordics, Benelux, Germany) x 2</t>
+          <t>Sales Engineer UK</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Harry Kimpel</t>
+          <t>Alistair Macrae</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -662,26 +662,26 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45992</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>707</v>
+        <v>663</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dash0</t>
+          <t>Blink Ops</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sales Engineer EMEA (UK, Nordics, Benelux, Germany) x 2</t>
+          <t>Sales Engineer UK</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Patrick Schrimpf</t>
+          <t>Adam Evans</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -690,54 +690,54 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45993</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>730</v>
+        <v>673</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PointFive</t>
+          <t>Redwood Software</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PointFive SE EST</t>
+          <t>SE UK</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Matthew Hughes</t>
+          <t>Nicholas Vlatko</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45994</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>745</v>
+        <v>707</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Blink Ops</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Senior Sales Engineer (Mid-ATL)</t>
+          <t>Sales Engineer EMEA (UK, Nordics, Benelux, Germany) x 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jakub Nogalski</t>
+          <t>Harry Kimpel</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -746,26 +746,26 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45982</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>745</v>
+        <v>707</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Blink Ops</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Senior Sales Engineer (Mid-ATL)</t>
+          <t>Sales Engineer EMEA (UK, Nordics, Benelux, Germany) x 2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>James Gaidos</t>
+          <t>Patrick Schrimpf</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -779,161 +779,161 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>768</v>
+        <v>730</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>PointFive</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Senior Sales Engineer (US)</t>
+          <t>PointFive SE EST</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Artur Sirota</t>
+          <t>Matthew Hughes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45988</v>
+        <v>45994</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Blink Ops</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Senior Sales Engineer (US)</t>
+          <t>Senior Sales Engineer (Mid-ATL)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Matthew Hughes</t>
+          <t>James Gaidos</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45986</v>
+        <v>45993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>777</v>
+        <v>745</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Blink Ops</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SE Director</t>
+          <t>Senior Sales Engineer (Mid-ATL)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hozefa Bata</t>
+          <t>Jakub Nogalski</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45974</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mabl</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Partner Manager</t>
+          <t>Senior Sales Engineer (US)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Alix Moreira</t>
+          <t>Matthew Hughes</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45995</v>
+        <v>45986</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mabl</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Partner Manager</t>
+          <t>Senior Sales Engineer (US)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Juan Echeverri</t>
+          <t>Artur Sirota</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45992</v>
+        <v>45988</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Allium</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Growth Marketing</t>
+          <t>SE Director</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Julia Nelson</t>
+          <t>Hozefa Bata</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -942,63 +942,63 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45978</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Allium</t>
+          <t>Mabl</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Growth Marketing</t>
+          <t>Partner Manager</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SHAIL SHAH</t>
+          <t>Alix Moreira</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45978</v>
+        <v>45995</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Allium</t>
+          <t>Mabl</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Growth Marketing</t>
+          <t>Partner Manager</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>David Lambert</t>
+          <t>Juan Echeverri</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45980</v>
+        <v>45992</v>
       </c>
     </row>
     <row r="21">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>KC Patrick</t>
+          <t>Cameron Bernard</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45980</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="22">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cameron Bernard</t>
+          <t>SHAIL SHAH</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1054,54 +1054,54 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45982</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Adaptive6</t>
+          <t>Allium</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Head of Sales (US)</t>
+          <t>Growth Marketing</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Joseph Crowley</t>
+          <t>David Lambert</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45987</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Legion Security</t>
+          <t>Allium</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS1 Legion - Sales Engineer</t>
+          <t>Growth Marketing</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Michael Maizel</t>
+          <t>Julia Nelson</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1110,34 +1110,118 @@
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45966</v>
+        <v>45978</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>790</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Allium</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Growth Marketing</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KC Patrick</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45980</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>791</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Adaptive6</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Head of Sales (US)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Joseph Crowley</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>799</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Legion Security</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CS1 Legion - Sales Engineer</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Michael Maizel</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>826</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Legit Security</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>VP of Sales</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Joseph Crowley</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1st Interview</t>
         </is>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F28" s="2" t="n">
         <v>45992</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_Weronika_Nazarko.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Weronika_Nazarko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,12 +526,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Alistair Macrae</t>
+          <t>Graham Rance</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Graham Rance</t>
+          <t>Kev Pyart</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>James Todd</t>
+          <t>LLOYD WEBB</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,46 +587,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Blink Ops</t>
+          <t>Redwood Software</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sales Engineer UK</t>
+          <t>SE UK</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kev Pyart</t>
+          <t>Joseph Falvey</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Blink Ops</t>
+          <t>Redwood Software</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sales Engineer UK</t>
+          <t>SE UK</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LLOYD WEBB</t>
+          <t>Navid Ghavami</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -662,121 +662,121 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SE UK</t>
+          <t>Sales Engineer EMEA (UK, Nordics, Benelux, Germany) x 2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Navid Ghavami</t>
+          <t>Harry Kimpel</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Redwood Software</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SE UK</t>
+          <t>Sales Engineer EMEA (UK, Nordics, Benelux, Germany) x 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Joseph Falvey</t>
+          <t>Patrick Schrimpf</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dash0</t>
+          <t>PointFive</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sales Engineer EMEA (UK, Nordics, Benelux, Germany) x 2</t>
+          <t>PointFive SE EST</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Harry Kimpel</t>
+          <t>Matthew Hughes</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>707</v>
+        <v>768</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dash0</t>
+          <t>Adaptive6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sales Engineer EMEA (UK, Nordics, Benelux, Germany) x 2</t>
+          <t>Senior Sales Engineer (US)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Patrick Schrimpf</t>
+          <t>Matthew Hughes</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>730</v>
+        <v>849</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PointFive</t>
+          <t>Oasis Security</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PointFive SE EST</t>
+          <t>Director of Product Marketing</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Matthew Hughes</t>
+          <t>Alex Spiliotes</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,124 +787,24 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>745</v>
+        <v>866</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Blink Ops</t>
+          <t>CyCognito</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Senior Sales Engineer (Mid-ATL)</t>
+          <t>BDR US</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jakub Nogalski</t>
+          <t>Bryce Morais</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
-        <is>
-          <t>2nd Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>768</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Adaptive6</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Senior Sales Engineer (US)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Matthew Hughes</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2nd Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>791</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Adaptive6</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Head of Sales (US)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Joseph Crowley</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>849</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Oasis Security</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Director of Product Marketing</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Alex Spiliotes</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>849</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Oasis Security</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Director of Product Marketing</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>William Bradley</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
         <is>
           <t>CV Sent</t>
         </is>
